--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,341 +458,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0000277-56.2023.8.26.0698</t>
+          <t>0001785-94.2025.8.26.0236</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Identificação
-EDER NILTON SOTANA
-CPF: 141.196.868-92
-Data de nascimento: 17/04/1971 - 54 anos
-Possível mãe:NATALINA CAMPANHA SOTANA
-Consultar
-Situação na Receita Federal:
-Regular
-Sexo: Masculino
-Signo: Áries
-Data de status do CPF: 04/09/2025
-Provável óbito: Não</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>141.196.868-92</t>
+          <t>305.024.188-85</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(16) 99701-2274, (16) 99701-2274, 0, 0, (16) 3287-2002, (16) 3287-2002, 0, 0, (16) 99619-1658, (16) 99619-1658, 0, 0, (11) 3287-2002, (11) 3287-2002, 0, 0</t>
+          <t>(16) 99716-5928, (16) 99716-5928, 0, 0, (16) 99764-8503, (16) 99764-8503, 0, 0, (11) 99898-9898, (11) 99898-9898, 0, 0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0000277-56.2023.8.26.0698</t>
+          <t>0001785-94.2025.8.26.0236</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modelos</t>
+          <t>PRINCIPAIS TELEFONES
+Adicionar telefones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>409.629.448-90</t>
+          <t>324.062.578-43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(16) 99731-9108, (16) 99731-9108, 0, 0</t>
+          <t>(16) 98143-9709, (16) 98143-9709, 0, 0, (16) 3342-3268, (16) 3342-3268, 0, 0, (11) 99898-9898, (11) 99898-9898, 0, 0, (11) 99898-9898, (11) 99898-9898, 0, 0, (11) 99898-9898, (11) 99898-9898, 0, 0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0000320-41.2024.8.26.0412</t>
+          <t>0009342-02.2025.8.26.0053</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modelos</t>
+          <t>PRINCIPAIS TELEFONES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>198.508.258-63</t>
+          <t>084.733.985-80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(16) 98152-7900, (16) 98152-7900, 0, 0, (17) 3293-3415, (17) 3293-3415, 0, 0, (17) 99786-0780, (17) 99786-0780, 0, 0, (11) 3293-3415, (11) 3293-3415, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0001400-84.2022.8.26.0129</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>350.856.158-59</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(19) 98222-1696, (19) 98222-1696, 0, 0, (19) 99149-8179, (19) 99149-8179, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0001400-84.2022.8.26.0129</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>368.734.438-08</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(11) 99898-9898, (11) 99898-9898, 0, 0, (11) 99898-9898, (11) 99898-9898, 0, 0, (11) 99898-9898, (11) 99898-9898, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0003182-43.2024.8.26.0619</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>206.377.648-20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(16) 99741-1166, (16) 99741-1166, 0, 0, (11) 3252-4239, (11) 3252-4239, 0, 0, (41) 99977-2748, (41) 99977-2748, 0, 0, (11) 3253-2151, (11) 3253-2151, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0003182-43.2024.8.26.0619</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Localize</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>810.411.956-72</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>(16) 98816-6345, (16) 98816-6345, 0, 0, (11) 3252-5784, (11) 3252-5784, 0, 0, (16) 99601-4681, (16) 99601-4681, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0003495-57.2025.8.26.0590</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>304.230.348-98</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>(13) 99751-5409, (13) 99751-5409, 0, 0, (13) 3566-3856, (13) 3566-3856, 0, 0, (13) 97404-4254, (13) 97404-4254, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1000732-61.2025.8.26.0236</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Localize</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>030.369.188-33</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>(16) 99287-5323, (16) 99287-5323, 0, 0, (71) 99618-1811, (71) 99618-1811, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1007691-42.2019.8.26.0597</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>256.530.058-19</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>(68) 98117-9851, (68) 98117-9851, 0, 0, (17) 99745-9025, (17) 99745-9025, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1007691-42.2019.8.26.0597</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>268.850.098-81</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(16) 99105-0710, (16) 99105-0710, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1007691-42.2019.8.26.0597</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>020.563.918-64</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(16) 93942-2685, (16) 93942-2685, 0, 0, (16) 3947-9660, (16) 3947-9660, 0, 0, (16) 99173-8223, (16) 99173-8223, 0, 0, (16) 3524-7138, (16) 3524-7138, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1007691-42.2019.8.26.0597</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>090.632.948-59</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>(16) 98807-4012, (16) 98807-4012, 0, 0, (16) 3251-2150, (16) 3251-2150, 0, 0, (16) 99225-8734, (16) 99225-8734, 0, 0, (16) 3981-3903, (16) 3981-3903, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1007691-42.2019.8.26.0597</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>718.384.066-20</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>(16) 99711-5176, (16) 99711-5176, 0, 0, (16) 3442-2491, (16) 3442-2491, 0, 0, (16) 99794-5653, (16) 99794-5653, 0, 0, (16) 3625-1401, (16) 3625-1401, 0, 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1007691-42.2019.8.26.0597</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Modelos</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>020.252.088-98</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>(16) 99130-0630, (16) 99130-0630, 0, 0, (16) 99246-2033, (16) 99246-2033, 0, 0</t>
+          <t>(11) 98569-1810, (11) 98569-1810, 0, 0, (75) 99837-3416, (75) 99837-3416, 0, 0</t>
         </is>
       </c>
     </row>
